--- a/biology/Histoire de la zoologie et de la botanique/William_Rowan/William_Rowan.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Rowan/William_Rowan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Rowan est un ornithologue et un éthologue canadien, né le 29 juillet 1891 à Bâle et mort le 30 juin 1957 à Edmonton.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît en Suisse d’un père irlandais et d’une mère danoise. Il passe ses premières années sur le continent, sa famille part en 1900 en Grande-Bretagne puis, en 1908, elle s’installe au Canada. Il revient en Angleterre pour poursuivre ses études mais celles-ci sont interrompues par la Première Guerre mondiale. Blessé, il est rendu à la vie civile et est diplômé du baccalauréat de sciences à l’University College de Londres en 1917.
 En 1919, il part à l’université du Manitoba, puis, en 1920, entre au département de biologie de l’université d'Alberta. En 1921, il devient le premier membre du département de zoologie qu’il contribue à développer et qu’il dirigera jusqu’à son départ à la retraite en 1956.
@@ -549,7 +563,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">E.O. H. (1958). Obituary. William Rowan, The Ibis, 100 (1) : 120-121.
 W. Ray Salt (1958). In Memoriam : William Rowan, The Auk, 75 (4) : 387-390.  (ISSN 0004-8038)
